--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3028099.111212435</v>
+        <v>-3030667.311491802</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>40.95173077586274</v>
       </c>
       <c r="H11" t="n">
-        <v>26.29591720173911</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412177</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937163</v>
+        <v>82.26664558937118</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>176.9968539408159</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600981</v>
+        <v>224.0740557600986</v>
       </c>
       <c r="V11" t="n">
         <v>300.8311422713307</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,10 +1528,10 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
-        <v>91.36025417806762</v>
+        <v>140.3257048998236</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194081</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.104692060224</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>86.27878323457691</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124313</v>
+        <v>62.01103647124311</v>
       </c>
       <c r="S13" t="n">
         <v>162.8479091326377</v>
@@ -1582,7 +1582,7 @@
         <v>192.627833077365</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068084</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
         <v>225.2165271250238</v>
@@ -1594,7 +1594,7 @@
         <v>198.7885391902329</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532905</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>327.7619254218787</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>128.2743364608031</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.29591720173906</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885162</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412177</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937163</v>
+        <v>82.26664558937118</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9968539408162</v>
+        <v>176.9968539408159</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600981</v>
       </c>
       <c r="V14" t="n">
         <v>300.8311422713307</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>140.3257048998236</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194081</v>
+        <v>88.46029360621976</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5128464477649</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>86.27878323457607</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124313</v>
+        <v>62.01103647124311</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326377</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6278330773647</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
         <v>225.2165271250238</v>
@@ -1831,7 +1831,7 @@
         <v>198.7885391902329</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532905</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460838</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536107</v>
       </c>
       <c r="D17" t="n">
         <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
-        <v>307.9753664292643</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
         <v>337.0254728360567</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077908</v>
+        <v>35.29150897077934</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222239</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415049</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527381</v>
+        <v>229.6550507489062</v>
       </c>
       <c r="W17" t="n">
         <v>275.3447159000162</v>
@@ -2002,25 +2002,25 @@
         <v>105.9357273645405</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123103</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081556</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917237</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553447</v>
+        <v>71.52479520553445</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163142</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692401</v>
+        <v>70.85876209692398</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244134</v>
+        <v>22.45616759244131</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265057</v>
+        <v>15.03589985265054</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140451</v>
@@ -2056,16 +2056,16 @@
         <v>145.6526964587724</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.315585388216</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064312</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191942</v>
+        <v>275.0419535010013</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2286105534472</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
         <v>144.688400534698</v>
@@ -2081,7 +2081,7 @@
         <v>308.8375888460838</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536107</v>
       </c>
       <c r="D20" t="n">
         <v>280.7867888032862</v>
@@ -2090,13 +2090,13 @@
         <v>308.034117254865</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>3.986929086140062</v>
       </c>
       <c r="H20" t="n">
-        <v>220.652760744324</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077905</v>
+        <v>35.29150897077934</v>
       </c>
       <c r="T20" t="n">
         <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415045</v>
+        <v>177.0989191415058</v>
       </c>
       <c r="V20" t="n">
         <v>253.8560056527381</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645405</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123103</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081556</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917237</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553447</v>
+        <v>71.52479520553445</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163142</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692401</v>
+        <v>70.85876209692398</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244133</v>
+        <v>22.45616759244131</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.45110783445789</v>
+        <v>15.03589985265054</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140451</v>
@@ -2293,13 +2293,13 @@
         <v>145.6526964587724</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.315585388216</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064312</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191942</v>
+        <v>275.0419535010013</v>
       </c>
       <c r="X22" t="n">
         <v>151.8134025716404</v>
@@ -2318,7 +2318,7 @@
         <v>308.8375888460838</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536107</v>
       </c>
       <c r="D23" t="n">
         <v>280.7867888032862</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077906</v>
+        <v>35.29150897077905</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222234</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645405</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123103</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081556</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917237</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553447</v>
+        <v>71.52479520553445</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163142</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692401</v>
+        <v>70.85876209692398</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244133</v>
+        <v>22.45616759244131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265056</v>
+        <v>15.03589985265054</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140451</v>
@@ -2530,10 +2530,10 @@
         <v>145.6526964587724</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7307933700234</v>
+        <v>212.315585388216</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064312</v>
+        <v>240.6565984882378</v>
       </c>
       <c r="W25" t="n">
         <v>212.6267455191942</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124527</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958235</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572812</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403093</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124527</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124558</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.314829203296</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C11" t="n">
-        <v>797.5453589283428</v>
+        <v>797.5453589283441</v>
       </c>
       <c r="D11" t="n">
-        <v>466.4727069870511</v>
+        <v>466.4727069870523</v>
       </c>
       <c r="E11" t="n">
-        <v>107.8775010542651</v>
+        <v>107.877501054267</v>
       </c>
       <c r="F11" t="n">
-        <v>107.8775010542651</v>
+        <v>107.877501054267</v>
       </c>
       <c r="G11" t="n">
-        <v>107.8775010542651</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3159685272559</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810562</v>
@@ -5054,37 +5054,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851405</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.3860687907</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516228112588</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.940619507933</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.667907912312</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.721622601959</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.32913153704</v>
+        <v>418.3291315370404</v>
       </c>
       <c r="C13" t="n">
-        <v>326.0460465086891</v>
+        <v>276.5859952745924</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0460465086891</v>
+        <v>153.6624025277155</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0460465086891</v>
+        <v>153.6624025277155</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0460465086891</v>
+        <v>153.6624025277155</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5362565488668</v>
+        <v>153.6624025277155</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159351</v>
+        <v>138.2866539159352</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016277</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869399</v>
+        <v>712.13744538694</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5212,22 +5212,22 @@
         <v>1451.006677765986</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988181723215</v>
+        <v>1776.988181723216</v>
       </c>
       <c r="P13" t="n">
         <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2077.872377806009</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>1913.379540298294</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1718.805971533279</v>
       </c>
       <c r="U13" t="n">
         <v>1456.896151324381</v>
@@ -5236,13 +5236,13 @@
         <v>1229.404709783953</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124507</v>
+        <v>967.1805864124511</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3840821798922</v>
+        <v>766.3840821798926</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7845497018209</v>
+        <v>572.7845497018213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1139.314829203295</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C14" t="n">
-        <v>797.5453589283422</v>
+        <v>797.5453589283436</v>
       </c>
       <c r="D14" t="n">
-        <v>466.4727069870505</v>
+        <v>466.4727069870519</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8775010542652</v>
+        <v>336.9026701579574</v>
       </c>
       <c r="F14" t="n">
-        <v>107.8775010542652</v>
+        <v>336.9026701579574</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31596852725606</v>
+        <v>336.9026701579574</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725606</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851404</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386068790699</v>
+        <v>2837.3860687907</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516228112588</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.940619507932</v>
+        <v>2207.940619507933</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.667907912311</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.721622601958</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3291315370398</v>
+        <v>418.3291315370403</v>
       </c>
       <c r="C16" t="n">
-        <v>276.5859952745917</v>
+        <v>276.5859952745922</v>
       </c>
       <c r="D16" t="n">
-        <v>153.6624025277148</v>
+        <v>187.2321633491177</v>
       </c>
       <c r="E16" t="n">
-        <v>153.6624025277148</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>153.6624025277148</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.2866539159351</v>
@@ -5440,7 +5440,7 @@
         <v>368.9257419016276</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869399</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5455,7 +5455,7 @@
         <v>2036.247587193691</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R16" t="n">
         <v>2077.872377806008</v>
@@ -5473,13 +5473,13 @@
         <v>1229.404709783953</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124505</v>
+        <v>967.1805864124509</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3840821798919</v>
+        <v>766.3840821798924</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7845497018207</v>
+        <v>572.7845497018211</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.911892787882</v>
+        <v>1855.314462232241</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.592055461003</v>
+        <v>1560.994624905361</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9690364677843</v>
+        <v>1277.371605912143</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8828077513556</v>
+        <v>966.2260329274309</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8828077513554</v>
       </c>
       <c r="G17" t="n">
         <v>289.4530372098841</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749798</v>
+        <v>3289.957832749797</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747551</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73496763492</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.314759904882</v>
+        <v>2747.76016889865</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.1887842483</v>
+        <v>2469.634193242068</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.365705600752</v>
+        <v>2170.81111459452</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869053238472</v>
+        <v>1855.314462232241</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470828</v>
+        <v>569.1149231470824</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327079</v>
+        <v>474.8214198327077</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339043</v>
+        <v>399.3474600339041</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650433</v>
+        <v>326.0770460650431</v>
       </c>
       <c r="F19" t="n">
-        <v>253.829778180665</v>
+        <v>253.8297781806649</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689161</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030598</v>
+        <v>89.19511400030592</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5710,13 +5710,13 @@
         <v>1253.43763422979</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782734</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937885</v>
+        <v>822.2706078937881</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637904</v>
+        <v>676.1207083637901</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.911892787883</v>
+        <v>1518.911892787881</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592055461004</v>
+        <v>1224.592055461002</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9690364677851</v>
+        <v>940.9690364677834</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8234634830731</v>
+        <v>629.8234634830714</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8234634830731</v>
+        <v>293.4802383069959</v>
       </c>
       <c r="G20" t="n">
-        <v>289.3936929416016</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749798</v>
+        <v>3289.957832749797</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747551</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.734967634921</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904883</v>
+        <v>2723.31475990488</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.188784248301</v>
+        <v>2445.188784248298</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.365705600753</v>
+        <v>2146.365705600751</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869053238473</v>
+        <v>1830.869053238471</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470828</v>
+        <v>569.1149231470824</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327079</v>
+        <v>474.8214198327077</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339043</v>
+        <v>399.3474600339041</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650433</v>
+        <v>326.0770460650431</v>
       </c>
       <c r="F22" t="n">
-        <v>253.829778180665</v>
+        <v>253.8297781806649</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689161</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030598</v>
+        <v>89.19511400030592</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.061105831465</v>
+        <v>1912.106770459552</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.017901271823</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454881</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194057</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601702</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782737</v>
+        <v>975.6174791782734</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937885</v>
+        <v>822.2706078937881</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637904</v>
+        <v>676.1207083637901</v>
       </c>
     </row>
     <row r="23">
@@ -5966,58 +5966,58 @@
         <v>1862.17982079233</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85998346545</v>
+        <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.09139148752</v>
+        <v>973.0913914875205</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114445</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699731</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227235</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227235</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512978</v>
+        <v>262.2566059512977</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411443</v>
+        <v>596.0759796411442</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642097561478</v>
+        <v>1917.044667005837</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42091462026</v>
+        <v>2463.823484064619</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.544858516396</v>
+        <v>2966.795954943956</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.319224873575</v>
+        <v>3361.570321301133</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.797427382563</v>
+        <v>3609.856683056816</v>
       </c>
       <c r="R23" t="n">
         <v>3668.873749613618</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692752</v>
       </c>
       <c r="U23" t="n">
         <v>3323.002895639368</v>
@@ -6029,10 +6029,10 @@
         <v>2788.456712252747</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.633633605199</v>
+        <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242919</v>
+        <v>2174.13698124292</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073439</v>
+        <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227235</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828897</v>
+        <v>167.0547444828896</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632368</v>
+        <v>405.3189434632367</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0171037759022</v>
+        <v>772.017103775902</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816472552673</v>
+        <v>1692.816472552672</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970727</v>
+        <v>2103.777751970728</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9802817071717</v>
+        <v>575.9802817071716</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927968</v>
+        <v>481.6867783927967</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939932</v>
+        <v>406.2128185939931</v>
       </c>
       <c r="E25" t="n">
         <v>332.9424046251322</v>
@@ -6142,7 +6142,7 @@
         <v>96.06047256039491</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227235</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5001074392079</v>
@@ -6154,7 +6154,7 @@
         <v>639.0470888365803</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361294</v>
+        <v>983.2041344361293</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
@@ -6163,13 +6163,13 @@
         <v>1623.942110062407</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496067</v>
+        <v>1856.549610496066</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648582</v>
+        <v>1934.159906648581</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019642</v>
+        <v>1918.972129019641</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92892446</v>
@@ -6178,19 +6178,19 @@
         <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.299136754146</v>
+        <v>1440.344801382233</v>
       </c>
       <c r="V25" t="n">
         <v>1197.257328161791</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4828377383626</v>
+        <v>982.4828377383625</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538774</v>
+        <v>829.1359664538772</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238793</v>
+        <v>682.9860669238792</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647468</v>
+        <v>3071.136282571877</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6303,19 +6303,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6406,10 +6406,10 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
@@ -6494,7 +6494,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6543,7 +6543,7 @@
         <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803191</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6625,10 +6625,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,16 +6640,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,61 +6686,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668885</v>
       </c>
       <c r="I32" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,52 +6856,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524677</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7117,16 +7117,16 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7160,52 +7160,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2135.190356524677</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7248,22 +7248,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960313</v>
@@ -7336,10 +7336,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524677</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,28 +7485,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960323</v>
+        <v>172.7749345960301</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973152</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>810.8729904741861</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.163811692541</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3071.136282571878</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468334</v>
@@ -7688,10 +7688,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,7 +7801,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,13 +7810,13 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
         <v>1910.743863481264</v>
@@ -7825,16 +7825,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.445018788609</v>
+        <v>164.4450187886089</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592907</v>
+        <v>195.2094266592905</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419191</v>
+        <v>204.9000484419188</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526778</v>
+        <v>196.0014531526774</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740269</v>
+        <v>194.5125490740266</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201054</v>
+        <v>197.1426452201051</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561909</v>
+        <v>203.1061824561906</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567227</v>
+        <v>201.1836244567225</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485205</v>
+        <v>116.9502528485204</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814159</v>
+        <v>120.9423422814157</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981498</v>
+        <v>115.8314587981496</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072881</v>
+        <v>115.6174569072879</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775607</v>
+        <v>104.1233201775604</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951443</v>
+        <v>117.6967333951441</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175962</v>
+        <v>113.990354617596</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.622964021339</v>
+        <v>126.6229640213389</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218791</v>
+        <v>121.8405463218789</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274368</v>
+        <v>125.1725778274367</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466754</v>
+        <v>114.2593588466753</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419909</v>
+        <v>126.0552829419908</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773783</v>
+        <v>127.1165875773782</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8005751963228</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>61.76916466343346</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431539</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550049</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>240.9710754359439</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>65.51711806374345</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>306.6874953089258</v>
       </c>
       <c r="O41" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>40.02214132148697</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>8.970374914503907</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23270,13 +23270,13 @@
         <v>379.9549295429072</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546492</v>
+        <v>343.0488786787865</v>
       </c>
       <c r="H11" t="n">
-        <v>241.3907309867771</v>
+        <v>267.6866481885162</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65581357412171</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.965450721756</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194081</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477649</v>
       </c>
       <c r="F13" t="n">
         <v>118.499931824127</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.55511548093963</v>
       </c>
       <c r="I13" t="n">
-        <v>69.4313042110339</v>
+        <v>69.43130421103385</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>226.7349174126544</v>
       </c>
       <c r="F14" t="n">
         <v>379.9549295429072</v>
       </c>
       <c r="G14" t="n">
-        <v>357.7046922529102</v>
+        <v>384.0006094546492</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885162</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.23406321318835</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.499931824127</v>
       </c>
       <c r="G16" t="n">
-        <v>52.82590882564794</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>117.8338987155165</v>
       </c>
       <c r="I16" t="n">
-        <v>69.4313042110339</v>
+        <v>69.43130421103388</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05875082560066858</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>24.20095490383193</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0385437499166</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05875082559987277</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1514799.509215106</v>
+        <v>1514799.509215105</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1287067.045877876</v>
+        <v>1287067.045877877</v>
       </c>
     </row>
     <row r="6">
@@ -26369,7 +26369,7 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936355</v>
+        <v>38521.85015936397</v>
       </c>
       <c r="E3" t="n">
         <v>1106215.961015502</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>37580.10929487406</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22820.53767071774</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25410.34822049033</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>37580.10929487405</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22820.53767071765</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25410.34822049036</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>37580.10929487401</v>
-      </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343056</v>
+        <v>422862.8573343054</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554752</v>
+        <v>38195.30988554753</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554751</v>
+        <v>38195.30988554755</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400187</v>
+        <v>75223.10714400189</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400186</v>
+        <v>75223.10714400189</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157181</v>
+        <v>86759.13279157194</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409847</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409847</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409845</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.2630805892</v>
+        <v>34688.26308058922</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.57187911058</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.57187911056</v>
       </c>
-      <c r="F5" t="n">
-        <v>76569.57187911055</v>
-      </c>
       <c r="G5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949901</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949901</v>
       </c>
       <c r="I5" t="n">
         <v>85736.39714516661</v>
@@ -26503,7 +26503,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469901.4797192481</v>
+        <v>-469905.8932971163</v>
       </c>
       <c r="C6" t="n">
-        <v>-472294.1580620537</v>
+        <v>-472298.5687008315</v>
       </c>
       <c r="D6" t="n">
-        <v>-496072.9705742583</v>
+        <v>-496077.3452287109</v>
       </c>
       <c r="E6" t="n">
-        <v>-1220980.84278016</v>
+        <v>-1221209.592921289</v>
       </c>
       <c r="F6" t="n">
-        <v>-114764.8817646581</v>
+        <v>-114993.6319057864</v>
       </c>
       <c r="G6" t="n">
-        <v>-193321.9410783749</v>
+        <v>-193388.2157485812</v>
       </c>
       <c r="H6" t="n">
-        <v>-155741.8317835009</v>
+        <v>-155808.1064537072</v>
       </c>
       <c r="I6" t="n">
-        <v>-195316.0676074561</v>
+        <v>-195316.0676074563</v>
       </c>
       <c r="J6" t="n">
         <v>-197595.0513993949</v>
@@ -26549,19 +26549,19 @@
         <v>-172184.7031789045</v>
       </c>
       <c r="L6" t="n">
-        <v>-209764.8124737785</v>
+        <v>-209764.8124737786</v>
       </c>
       <c r="M6" t="n">
-        <v>-379373.2714709774</v>
+        <v>-379373.2714709776</v>
       </c>
       <c r="N6" t="n">
         <v>-172184.7031789045</v>
       </c>
       <c r="O6" t="n">
-        <v>-172184.7031789045</v>
+        <v>-172184.7031789046</v>
       </c>
       <c r="P6" t="n">
-        <v>-172184.7031789045</v>
+        <v>-172184.7031789046</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859253</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179852</v>
+        <v>48.65426975179901</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034044</v>
+        <v>917.2184374034046</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="N4" t="n">
         <v>1014.336461208614</v>
       </c>
-      <c r="N4" t="n">
-        <v>1014.336461208615</v>
-      </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855621</v>
+        <v>44.98040685855669</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.1224308415</v>
+        <v>1041.122430841499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8169820011118</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520999</v>
+        <v>97.11802380520987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403307</v>
+        <v>202.9352112403306</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128224</v>
+        <v>137.5825701128223</v>
       </c>
       <c r="S8" t="n">
         <v>204.562947286872</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451301</v>
+        <v>85.79346287451298</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805389</v>
+        <v>93.66019412805382</v>
       </c>
       <c r="S9" t="n">
         <v>169.73929532649</v>
@@ -28032,10 +28032,10 @@
         <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880823</v>
+        <v>87.15615952880817</v>
       </c>
       <c r="K10" t="n">
-        <v>12.0760235073913</v>
+        <v>12.07602350739119</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917281</v>
+        <v>78.81524851917274</v>
       </c>
       <c r="R10" t="n">
         <v>173.3484074723761</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880421</v>
+        <v>26.92111619880423</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483558967</v>
       </c>
       <c r="X19" t="n">
-        <v>11.48104483558996</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.48104483558944</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483558967</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="U25" t="n">
-        <v>11.4810448355895</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559021</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739677</v>
+        <v>73.8962528173968</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859349</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185929</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859348</v>
+        <v>46.97513661859134</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785869</v>
+        <v>0.1955950542785888</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630579</v>
+        <v>2.003137849630598</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075228</v>
+        <v>7.540678330075304</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807723</v>
+        <v>16.60088573807739</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568981</v>
+        <v>24.88042438569007</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806813</v>
+        <v>30.86636652806844</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459494</v>
+        <v>34.34478007459529</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256398</v>
+        <v>34.90051452256434</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158128</v>
+        <v>32.95556620158161</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907866</v>
+        <v>28.12681329907895</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772676</v>
+        <v>21.12206541772698</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832729</v>
+        <v>12.28654782832742</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373303</v>
+        <v>4.457122299373347</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045145</v>
+        <v>0.8562173501045232</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228695</v>
+        <v>0.0156476043422871</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208497</v>
+        <v>0.1046525802208507</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01072360371189</v>
+        <v>1.010723603711901</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902061</v>
+        <v>3.603169976902097</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146152</v>
+        <v>9.887373818146251</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294308</v>
+        <v>16.89909669294325</v>
       </c>
       <c r="L9" t="n">
-        <v>22.7229209817244</v>
+        <v>22.72292098172463</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473019</v>
+        <v>26.51657701473046</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577265</v>
+        <v>27.21839190577292</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930014</v>
+        <v>24.89951104930039</v>
       </c>
       <c r="P9" t="n">
-        <v>19.984052796734</v>
+        <v>19.9840527967342</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468249</v>
+        <v>13.35881006468263</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589247</v>
+        <v>6.497640024589312</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347798</v>
+        <v>1.943875777347818</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971965</v>
+        <v>0.4218233386972007</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424323</v>
+        <v>0.006885038172424392</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914487</v>
+        <v>0.08773720774914576</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878522</v>
+        <v>0.7800635379878601</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310648</v>
+        <v>2.638497120310675</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864541</v>
+        <v>6.203020587864605</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849156</v>
+        <v>10.19346831849166</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935923</v>
+        <v>13.04412995935936</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016823</v>
+        <v>13.75320612016836</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855779</v>
+        <v>13.42618561855792</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985186</v>
+        <v>12.40125550985199</v>
       </c>
       <c r="P10" t="n">
-        <v>10.6114164717693</v>
+        <v>10.61141647176941</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521577</v>
+        <v>7.34679473252165</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793367</v>
+        <v>3.944983904793407</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773733</v>
+        <v>1.529020247773749</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827098</v>
+        <v>0.3748771603827136</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226089</v>
+        <v>0.004785665877226138</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970259</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187044</v>
+        <v>72.49953281187047</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431238</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690024</v>
       </c>
       <c r="M13" t="n">
         <v>374.554495592288</v>
@@ -35580,13 +35580,13 @@
         <v>371.7780623663443</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2742464214439</v>
+        <v>329.274246421444</v>
       </c>
       <c r="P13" t="n">
         <v>261.8781873439146</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366979</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187041</v>
+        <v>72.49953281187044</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431238</v>
       </c>
       <c r="L16" t="n">
         <v>346.6784883690023</v>
@@ -35814,7 +35814,7 @@
         <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7780623663442</v>
+        <v>371.7780623663443</v>
       </c>
       <c r="O16" t="n">
         <v>329.2742464214439</v>
@@ -35823,7 +35823,7 @@
         <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366979</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7216910265494</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>569.8221655516526</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597712</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525815</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>632.571592043224</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>685.7637716667631</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,19 +36756,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>632.571592043224</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468734</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174799</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>632.571592043224</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>779.8921912661705</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>632.571592043224</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>464.2791042831151</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.832082786133</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>858.9893307218371</v>
       </c>
       <c r="O41" t="n">
-        <v>632.5715920432249</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597722</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165971</v>
+        <v>92.55355323165753</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768874</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>407.7323611338758</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
